--- a/data/api tc.xlsx
+++ b/data/api tc.xlsx
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="M2"/>
       <c r="O2" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>25</v>
